--- a/biology/Botanique/Leonardoxa_africana/Leonardoxa_africana.xlsx
+++ b/biology/Botanique/Leonardoxa_africana/Leonardoxa_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonardoxa africana (Baill.) Aubrev. est une espèce d'arbres du genre Leonardoxa de la famille des Leguminosae, qu'on trouve dans les forêts tropicales submontagnardes du Gabon, de la Guinée équatoriale, du Cameroun et dans le sud-est du Nigeria. L’espèce n'est pas encore menacée mais est en surveillance pour éviter de futures menaces.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Leonardoxa est parfois présenté[3] comme limité à l'espèce type Leonardoxa africana (Baill.) Aubrév., un complexe polytype de quatre sous-espèces. Le complexe est perçu comme une espèce anneau de sous-espèces principalement allopatriques dans laquelle les deux variantes les plus extrêmes, la sous-espèce africana et gracilicaulis, ont une zone étroite de convergence dans laquelle elles se conjuguent dans les mêmes communautés et restent distinctes.
-En 1993[4], J. Léonard – à qui les taxons doivent leurs noms – avait d'abord proposé un nouveau genre, Normandiodendron, pour les deux autres espèces de Leonardoxa, Leonardoxa bequaertii (De Wild.) Aubrev. et Leonardoxa romii (De Wild.) Aubrev., mais de fait elles sont restées rattachées à Leonardoxa[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Leonardoxa est parfois présenté comme limité à l'espèce type Leonardoxa africana (Baill.) Aubrév., un complexe polytype de quatre sous-espèces. Le complexe est perçu comme une espèce anneau de sous-espèces principalement allopatriques dans laquelle les deux variantes les plus extrêmes, la sous-espèce africana et gracilicaulis, ont une zone étroite de convergence dans laquelle elles se conjuguent dans les mêmes communautés et restent distinctes.
+En 1993, J. Léonard – à qui les taxons doivent leurs noms – avait d'abord proposé un nouveau genre, Normandiodendron, pour les deux autres espèces de Leonardoxa, Leonardoxa bequaertii (De Wild.) Aubrev. et Leonardoxa romii (De Wild.) Aubrev., mais de fait elles sont restées rattachées à Leonardoxa.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leonardoxa africana est un myrmecophyte (plante qui offre un abri ou une nourriture aux fourmis qui vivent dans des relations symbiotiques avec elle), qui est associé à deux espèces de fourmis, la formicine Petalomyrmex phylax Snelling et la myrmicine Cataulacus mckeyi Snelling[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leonardoxa africana est un myrmecophyte (plante qui offre un abri ou une nourriture aux fourmis qui vivent dans des relations symbiotiques avec elle), qui est associé à deux espèces de fourmis, la formicine Petalomyrmex phylax Snelling et la myrmicine Cataulacus mckeyi Snelling.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 octobre 2017)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 octobre 2017) :
 sous-espèce Leonardoxa africana subsp. africana
 sous-espèce Leonardoxa africana subsp. gracilicaulis
 sous-espèce Leonardoxa africana subsp. letouzeyi
 sous-espèce Leonardoxa africana subsp. rumpiensis
-Selon Tropicos                                           (7 octobre 2017)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Leonardoxa africana subsp. africana
 sous-espèce Leonardoxa africana subsp. gracilicaulis McKey
 sous-espèce Leonardoxa africana subsp. letouzeyi McKey
